--- a/python_report/state_files/Gujarat.xlsx
+++ b/python_report/state_files/Gujarat.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\state_08.04.2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\Python Excel Reporting\python_report\state_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
-    <sheet name="Gen. Data Excel Sheet CSV-09041" sheetId="1" r:id="rId1"/>
+    <sheet name="Gen. Data Excel Sheet CSV-07061" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <t xml:space="preserve">M.N. </t>
   </si>
   <si>
-    <t>                                                                                                                 DATE 09-APR-18</t>
+    <t>                                                                                                                 DATE 07-JUN-18</t>
   </si>
   <si>
     <t>FROM   : SLDC GOTRI TO WRLDC MUMBAI</t>
@@ -198,7 +198,7 @@
     <t>TTL IPP +CPP +W/F + SOLAR ENERGY + BIOMASS</t>
   </si>
   <si>
-    <t>                                                 Daily Generation Data for the Date 08-APR-18</t>
+    <t>                                                 Daily Generation Data for the Date 06-JUN-18</t>
   </si>
   <si>
     <t>POWER STATION</t>
@@ -339,7 +339,7 @@
     <t>SOUTH  GUJARAT</t>
   </si>
   <si>
-    <t>                         Daily Generation Data for the Date 08-APR-18</t>
+    <t>                         Daily Generation Data for the Date 06-JUN-18</t>
   </si>
   <si>
     <t>TIME HOURS</t>
@@ -1227,9 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1261,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1335,10 +1333,10 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>4.6360000000000001</v>
+        <v>4.5019999999999998</v>
       </c>
       <c r="E10">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1355,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>4.7</v>
+        <v>4.53</v>
       </c>
       <c r="E11">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -1375,19 +1373,19 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>4.968</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="E12">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12">
-        <v>2.1240000000000001</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="I12">
-        <v>151</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1418,10 +1416,10 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>14.304</v>
+        <v>13.73</v>
       </c>
       <c r="E14">
-        <v>606</v>
+        <v>480</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1481,19 +1479,19 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>4.8239999999999998</v>
+        <v>4.3609999999999998</v>
       </c>
       <c r="E17">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
       <c r="H17">
-        <v>0.315</v>
+        <v>0.502</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1501,19 +1499,19 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0.375</v>
+        <v>4.3209999999999997</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="H18">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1521,19 +1519,19 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>4.7309999999999999</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="E19">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
       <c r="H19">
-        <v>0.14799999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1541,10 +1539,10 @@
         <v>11</v>
       </c>
       <c r="D20">
-        <v>9.93</v>
+        <v>13.364000000000001</v>
       </c>
       <c r="E20">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1567,19 +1565,19 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>4.6310000000000002</v>
+        <v>4.0110000000000001</v>
       </c>
       <c r="E21">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21">
-        <v>2.4550000000000001</v>
+        <v>2.742</v>
       </c>
       <c r="I21">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1587,19 +1585,19 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1.601</v>
+        <v>4.3280000000000003</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
       <c r="H22">
-        <v>2.835</v>
+        <v>2.7989999999999999</v>
       </c>
       <c r="I22">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -1607,19 +1605,19 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>5.125</v>
+        <v>3.81</v>
       </c>
       <c r="E23">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
       </c>
       <c r="H23">
-        <v>1.647</v>
+        <v>2.911</v>
       </c>
       <c r="I23">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1627,10 +1625,10 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>5.0590000000000002</v>
+        <v>4.641</v>
       </c>
       <c r="E24">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
@@ -1647,10 +1645,10 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>5.0209999999999999</v>
+        <v>4.5819999999999999</v>
       </c>
       <c r="E25">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1667,10 +1665,10 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>24</v>
@@ -1687,19 +1685,19 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>4.9249999999999998</v>
+        <v>4.5620000000000003</v>
       </c>
       <c r="E27">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
       <c r="H27">
-        <v>6.9368999999999996</v>
+        <v>8.4525000000000006</v>
       </c>
       <c r="I27">
-        <v>322</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1713,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>6.3209999999999997</v>
+        <v>6.8369999999999997</v>
       </c>
       <c r="I28">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1724,19 +1722,19 @@
         <v>11</v>
       </c>
       <c r="D29">
-        <v>31.282</v>
+        <v>25.934000000000001</v>
       </c>
       <c r="E29">
-        <v>1233</v>
+        <v>968</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
-        <v>6.9779999999999998</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="I29">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1756,10 +1754,10 @@
         <v>3</v>
       </c>
       <c r="H30">
-        <v>6.9489999999999998</v>
+        <v>6.7119999999999997</v>
       </c>
       <c r="I30">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1776,10 +1774,10 @@
         <v>11</v>
       </c>
       <c r="H31">
-        <v>20.248000000000001</v>
+        <v>20.332000000000001</v>
       </c>
       <c r="I31">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1902,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="H37">
-        <v>1.3580000000000001</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="I37">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1936,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>4.7460000000000004</v>
+        <v>4.5350000000000001</v>
       </c>
       <c r="E39">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -1956,10 +1954,10 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>5.7329999999999997</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="E40">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -1976,10 +1974,10 @@
         <v>11</v>
       </c>
       <c r="D41">
-        <v>10.478999999999999</v>
+        <v>9.4329999999999998</v>
       </c>
       <c r="E41">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
@@ -2002,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0.35099999999999998</v>
+        <v>1.35</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
         <v>23</v>
@@ -2022,10 +2020,10 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>0.85</v>
+        <v>1.216</v>
       </c>
       <c r="E43">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -2042,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2062,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>1.208</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="E45">
         <v>52</v>
@@ -2082,10 +2080,10 @@
         <v>11</v>
       </c>
       <c r="D46">
-        <v>2.4089999999999998</v>
+        <v>3.988</v>
       </c>
       <c r="E46">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
         <v>38</v>
@@ -2177,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2243,10 +2241,10 @@
         <v>45</v>
       </c>
       <c r="H53">
-        <v>8.6479999999999997</v>
+        <v>7.8179999999999996</v>
       </c>
       <c r="I53">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -2263,10 +2261,10 @@
         <v>46</v>
       </c>
       <c r="H54">
-        <v>3.4969999999999999</v>
+        <v>4.5090000000000003</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -2277,19 +2275,19 @@
         <v>22</v>
       </c>
       <c r="D55">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
         <v>48</v>
       </c>
       <c r="H55">
-        <v>4.3339999999999996</v>
+        <v>36.072000000000003</v>
       </c>
       <c r="I55">
-        <v>181</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -2297,10 +2295,10 @@
         <v>24</v>
       </c>
       <c r="D56">
-        <v>0.54700000000000004</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
         <v>49</v>
@@ -2317,19 +2315,19 @@
         <v>23</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1.236</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s">
         <v>50</v>
       </c>
       <c r="H57">
-        <v>7.3179999999999996</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -2337,19 +2335,19 @@
         <v>35</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
         <v>51</v>
       </c>
       <c r="H58">
-        <v>3.4630000000000001</v>
+        <v>4.274</v>
       </c>
       <c r="I58">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -2357,19 +2355,19 @@
         <v>31</v>
       </c>
       <c r="D59">
-        <v>3.5169999999999999</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>52</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -2377,19 +2375,19 @@
         <v>53</v>
       </c>
       <c r="D60">
-        <v>1.978</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>54</v>
       </c>
       <c r="H60">
-        <v>0.34499999999999997</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="I60">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -2397,19 +2395,19 @@
         <v>11</v>
       </c>
       <c r="D61">
-        <v>7.0119999999999996</v>
+        <v>1.84</v>
       </c>
       <c r="E61">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s">
         <v>55</v>
       </c>
       <c r="H61">
-        <v>13.03</v>
+        <v>47.859000000000002</v>
       </c>
       <c r="I61">
-        <v>13.03</v>
+        <v>47.859000000000002</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -2417,10 +2415,10 @@
         <v>56</v>
       </c>
       <c r="H62">
-        <v>6.8650000000000002</v>
+        <v>6.04</v>
       </c>
       <c r="I62">
-        <v>941</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -2428,10 +2426,10 @@
         <v>57</v>
       </c>
       <c r="H63">
-        <v>0.17599999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -2439,10 +2437,10 @@
         <v>58</v>
       </c>
       <c r="H64">
-        <v>76.366</v>
+        <v>138.774</v>
       </c>
       <c r="I64">
-        <v>5755</v>
+        <v>9458</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,19 +2488,19 @@
         <v>62</v>
       </c>
       <c r="B72">
-        <v>5.6429999999999998</v>
+        <v>8.41</v>
       </c>
       <c r="C72">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
       </c>
       <c r="E72">
-        <v>6.5229999999999997</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="G72">
-        <v>261</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,19 +2508,19 @@
         <v>64</v>
       </c>
       <c r="B73">
-        <v>4.9470000000000001</v>
+        <v>6.26</v>
       </c>
       <c r="C73">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="D73" t="s">
         <v>65</v>
       </c>
       <c r="E73">
-        <v>7.9420000000000002</v>
+        <v>3.8839999999999999</v>
       </c>
       <c r="G73">
-        <v>344</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,7 +2528,7 @@
         <v>66</v>
       </c>
       <c r="B74">
-        <v>0.89</v>
+        <v>1.56</v>
       </c>
       <c r="C74">
         <v>50</v>
@@ -2539,10 +2537,10 @@
         <v>67</v>
       </c>
       <c r="E74">
-        <v>-6.5030000000000001</v>
+        <v>-6.8929999999999998</v>
       </c>
       <c r="G74">
-        <v>-297</v>
+        <v>-249</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2550,19 +2548,19 @@
         <v>68</v>
       </c>
       <c r="B75">
-        <v>-4.8000000000000001E-2</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
         <v>69</v>
       </c>
       <c r="E75">
-        <v>1.4390000000000001</v>
+        <v>-3.0089999999999999</v>
       </c>
       <c r="G75">
-        <v>47</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,10 +2568,10 @@
         <v>70</v>
       </c>
       <c r="B76">
-        <v>17.600000000000001</v>
+        <v>17.702000000000002</v>
       </c>
       <c r="C76">
-        <v>830</v>
+        <v>745</v>
       </c>
       <c r="D76" t="s">
         <v>71</v>
@@ -2590,19 +2588,19 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>13.170999999999999</v>
+        <v>15.116</v>
       </c>
       <c r="C77">
-        <v>611</v>
+        <v>505</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
       </c>
       <c r="E77">
-        <v>67.935000000000002</v>
+        <v>64.281999999999996</v>
       </c>
       <c r="G77">
-        <v>2900</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2610,10 +2608,10 @@
         <v>74</v>
       </c>
       <c r="B78">
-        <v>23.346</v>
+        <v>32.866999999999997</v>
       </c>
       <c r="C78">
-        <v>1065</v>
+        <v>1611</v>
       </c>
       <c r="D78" t="s">
         <v>75</v>
@@ -2630,19 +2628,19 @@
         <v>76</v>
       </c>
       <c r="B79">
-        <v>14.935</v>
+        <v>17.263000000000002</v>
       </c>
       <c r="C79">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D79" t="s">
         <v>77</v>
       </c>
       <c r="E79">
-        <v>-7.3680000000000003</v>
+        <v>-44.195999999999998</v>
       </c>
       <c r="G79">
-        <v>-307</v>
+        <v>-1830</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2650,19 +2648,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31.257999999999999</v>
+        <v>26.702999999999999</v>
       </c>
       <c r="C80">
-        <v>1425</v>
+        <v>1162</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
       </c>
       <c r="E80">
-        <v>17.533000000000001</v>
+        <v>18.111999999999998</v>
       </c>
       <c r="G80">
-        <v>836</v>
+        <v>728</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2670,10 +2668,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2.9980000000000002</v>
+        <v>12.159000000000001</v>
       </c>
       <c r="C81">
-        <v>171</v>
+        <v>670</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,16 +2679,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>22.073</v>
+        <v>23.154</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
       </c>
       <c r="E82">
-        <v>178.72900000000001</v>
+        <v>156.964</v>
       </c>
       <c r="G82">
-        <v>6787</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,10 +2707,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>333.02499999999998</v>
+        <v>365.10700000000003</v>
       </c>
       <c r="C85">
-        <v>14834</v>
+        <v>16699</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,7 +2721,7 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2742,10 +2740,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>333.02499999999998</v>
+        <v>365.10700000000003</v>
       </c>
       <c r="C88">
-        <v>14834</v>
+        <v>16699</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,10 +2751,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>333.02499999999998</v>
+        <v>365.10700000000003</v>
       </c>
       <c r="C89">
-        <v>14834</v>
+        <v>16699</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2764,7 +2762,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>13.03</v>
+        <v>47.859000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2772,7 +2770,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>6.8650000000000002</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2793,10 +2791,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>304.44</v>
+        <v>288.13</v>
       </c>
       <c r="D94">
-        <v>402.1</v>
+        <v>396.06</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2804,10 +2802,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>186.3</v>
+        <v>79.936999999999998</v>
       </c>
       <c r="D95">
-        <v>51.430999999999997</v>
+        <v>35.930999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2815,10 +2813,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>323.89999999999998</v>
+        <v>309.66000000000003</v>
       </c>
       <c r="D96">
-        <v>407.1</v>
+        <v>403.11</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -2826,10 +2824,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>400.01400000000001</v>
+        <v>220.63200000000001</v>
       </c>
       <c r="D97">
-        <v>70.331000000000003</v>
+        <v>58.360999999999997</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -2851,7 +2849,7 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>8.0500000000000007</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -2955,37 +2953,37 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="D113">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="E113">
-        <v>-189</v>
+        <v>-320</v>
       </c>
       <c r="F113">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>2884</v>
+        <v>2902</v>
       </c>
       <c r="I113">
-        <v>14007</v>
+        <v>15833</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="L113">
-        <v>14022</v>
+        <v>15827</v>
       </c>
       <c r="M113">
-        <v>14022</v>
+        <v>15827</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -2993,37 +2991,37 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D114">
-        <v>308</v>
+        <v>164</v>
       </c>
       <c r="E114">
-        <v>-276</v>
+        <v>-350</v>
       </c>
       <c r="F114">
-        <v>32</v>
+        <v>-186</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2823</v>
+        <v>2569</v>
       </c>
       <c r="I114">
-        <v>13638</v>
+        <v>15124</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>13652</v>
+        <v>15124</v>
       </c>
       <c r="M114">
-        <v>13652</v>
+        <v>15124</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -3031,37 +3029,37 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D115">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="E115">
-        <v>-278</v>
+        <v>-350</v>
       </c>
       <c r="F115">
-        <v>29</v>
+        <v>-186</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>2935</v>
+        <v>2473</v>
       </c>
       <c r="I115">
-        <v>13379</v>
+        <v>14951</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>-9</v>
+        <v>-26</v>
       </c>
       <c r="L115">
-        <v>13370</v>
+        <v>14925</v>
       </c>
       <c r="M115">
-        <v>13370</v>
+        <v>14925</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -3069,37 +3067,37 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D116">
-        <v>308</v>
+        <v>106</v>
       </c>
       <c r="E116">
-        <v>-276</v>
+        <v>-350</v>
       </c>
       <c r="F116">
-        <v>32</v>
+        <v>-244</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>2881</v>
+        <v>2300</v>
       </c>
       <c r="I116">
-        <v>13166</v>
+        <v>14512</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>-14</v>
+        <v>-25</v>
       </c>
       <c r="L116">
-        <v>13152</v>
+        <v>14487</v>
       </c>
       <c r="M116">
-        <v>13152</v>
+        <v>14487</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -3107,37 +3105,37 @@
         <v>5</v>
       </c>
       <c r="C117">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D117">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="E117">
-        <v>-280</v>
+        <v>-350</v>
       </c>
       <c r="F117">
-        <v>32</v>
+        <v>-244</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>2700</v>
+        <v>2211</v>
       </c>
       <c r="I117">
-        <v>12767</v>
+        <v>14025</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>-4</v>
+        <v>-25</v>
       </c>
       <c r="L117">
-        <v>12763</v>
+        <v>14000</v>
       </c>
       <c r="M117">
-        <v>12763</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -3145,37 +3143,37 @@
         <v>6</v>
       </c>
       <c r="C118">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="D118">
-        <v>301</v>
+        <v>116</v>
       </c>
       <c r="E118">
-        <v>-279</v>
+        <v>-360</v>
       </c>
       <c r="F118">
-        <v>22</v>
+        <v>-244</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>3014</v>
+        <v>2115</v>
       </c>
       <c r="I118">
-        <v>13478</v>
+        <v>14161</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>-9</v>
+        <v>-25</v>
       </c>
       <c r="L118">
-        <v>13469</v>
+        <v>14136</v>
       </c>
       <c r="M118">
-        <v>13469</v>
+        <v>14136</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -3183,37 +3181,37 @@
         <v>7</v>
       </c>
       <c r="C119">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="D119">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="E119">
-        <v>-348</v>
+        <v>-318</v>
       </c>
       <c r="F119">
-        <v>-46</v>
+        <v>-180</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>2741</v>
+        <v>1987</v>
       </c>
       <c r="I119">
-        <v>13341</v>
+        <v>14119</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="L119">
-        <v>13318</v>
+        <v>14099</v>
       </c>
       <c r="M119">
-        <v>13318</v>
+        <v>14099</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -3221,37 +3219,37 @@
         <v>8</v>
       </c>
       <c r="C120">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="D120">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="E120">
-        <v>-274</v>
+        <v>-326</v>
       </c>
       <c r="F120">
-        <v>22</v>
+        <v>-186</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>2769</v>
+        <v>2272</v>
       </c>
       <c r="I120">
-        <v>13479</v>
+        <v>14103</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>-14</v>
+        <v>-30</v>
       </c>
       <c r="L120">
-        <v>13465</v>
+        <v>14073</v>
       </c>
       <c r="M120">
-        <v>13465</v>
+        <v>14073</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -3259,25 +3257,25 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="D121">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="E121">
-        <v>-274</v>
+        <v>-334</v>
       </c>
       <c r="F121">
-        <v>20</v>
+        <v>-196</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>2782</v>
+        <v>2128</v>
       </c>
       <c r="I121">
-        <v>13590</v>
+        <v>13928</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -3286,10 +3284,10 @@
         <v>-10</v>
       </c>
       <c r="L121">
-        <v>13580</v>
+        <v>13918</v>
       </c>
       <c r="M121">
-        <v>13580</v>
+        <v>13918</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -3297,37 +3295,37 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="D122">
-        <v>340</v>
+        <v>122</v>
       </c>
       <c r="E122">
-        <v>-253</v>
+        <v>-326</v>
       </c>
       <c r="F122">
-        <v>87</v>
+        <v>-204</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>2888</v>
+        <v>2396</v>
       </c>
       <c r="I122">
-        <v>14276</v>
+        <v>14820</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="L122">
-        <v>14261</v>
+        <v>14830</v>
       </c>
       <c r="M122">
-        <v>14261</v>
+        <v>14830</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -3335,37 +3333,37 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="D123">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="E123">
-        <v>-253</v>
+        <v>-246</v>
       </c>
       <c r="F123">
-        <v>89</v>
+        <v>-90</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>2738</v>
+        <v>2869</v>
       </c>
       <c r="I123">
-        <v>14604</v>
+        <v>15454</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="L123">
-        <v>14599</v>
+        <v>15470</v>
       </c>
       <c r="M123">
-        <v>14599</v>
+        <v>15470</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -3373,37 +3371,37 @@
         <v>12</v>
       </c>
       <c r="C124">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D124">
-        <v>344</v>
+        <v>156</v>
       </c>
       <c r="E124">
-        <v>-297</v>
+        <v>-260</v>
       </c>
       <c r="F124">
-        <v>47</v>
+        <v>-104</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>2900</v>
+        <v>2881</v>
       </c>
       <c r="I124">
-        <v>14834</v>
+        <v>15411</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="L124">
-        <v>14829</v>
+        <v>15422</v>
       </c>
       <c r="M124">
-        <v>14829</v>
+        <v>15422</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -3411,37 +3409,37 @@
         <v>13</v>
       </c>
       <c r="C125">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D125">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="E125">
-        <v>-297</v>
+        <v>-260</v>
       </c>
       <c r="F125">
-        <v>45</v>
+        <v>-104</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>2857</v>
+        <v>3021</v>
       </c>
       <c r="I125">
-        <v>14485</v>
+        <v>15990</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L125">
-        <v>14490</v>
+        <v>15990</v>
       </c>
       <c r="M125">
-        <v>14490</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -3449,37 +3447,37 @@
         <v>14</v>
       </c>
       <c r="C126">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D126">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="E126">
-        <v>-260</v>
+        <v>-218</v>
       </c>
       <c r="F126">
-        <v>106</v>
+        <v>-62</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>2799</v>
+        <v>2711</v>
       </c>
       <c r="I126">
-        <v>14469</v>
+        <v>16008</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="L126">
-        <v>14459</v>
+        <v>16002</v>
       </c>
       <c r="M126">
-        <v>14459</v>
+        <v>16002</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -3487,37 +3485,37 @@
         <v>15</v>
       </c>
       <c r="C127">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="D127">
-        <v>368</v>
+        <v>164</v>
       </c>
       <c r="E127">
-        <v>-274</v>
+        <v>-249</v>
       </c>
       <c r="F127">
-        <v>94</v>
+        <v>-85</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>2884</v>
+        <v>2931</v>
       </c>
       <c r="I127">
-        <v>14514</v>
+        <v>16699</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L127">
-        <v>14534</v>
+        <v>16717</v>
       </c>
       <c r="M127">
-        <v>14534</v>
+        <v>16717</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -3525,37 +3523,37 @@
         <v>16</v>
       </c>
       <c r="C128">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="D128">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="E128">
-        <v>-221</v>
+        <v>-251</v>
       </c>
       <c r="F128">
-        <v>103</v>
+        <v>-89</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>2690</v>
+        <v>2891</v>
       </c>
       <c r="I128">
-        <v>14357</v>
+        <v>16485</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="L128">
-        <v>14362</v>
+        <v>16473</v>
       </c>
       <c r="M128">
-        <v>14362</v>
+        <v>16473</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -3563,37 +3561,37 @@
         <v>17</v>
       </c>
       <c r="C129">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="D129">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="E129">
-        <v>-181</v>
+        <v>-297</v>
       </c>
       <c r="F129">
-        <v>177</v>
+        <v>-137</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>2863</v>
+        <v>2959</v>
       </c>
       <c r="I129">
-        <v>14407</v>
+        <v>16168</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>-20</v>
+        <v>-11</v>
       </c>
       <c r="L129">
-        <v>14387</v>
+        <v>16157</v>
       </c>
       <c r="M129">
-        <v>14387</v>
+        <v>16157</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -3601,37 +3599,37 @@
         <v>18</v>
       </c>
       <c r="C130">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="D130">
-        <v>342</v>
+        <v>172</v>
       </c>
       <c r="E130">
-        <v>-232</v>
+        <v>-243</v>
       </c>
       <c r="F130">
-        <v>110</v>
+        <v>-71</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>2729</v>
+        <v>2898</v>
       </c>
       <c r="I130">
-        <v>13730</v>
+        <v>15378</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="L130">
-        <v>13711</v>
+        <v>15362</v>
       </c>
       <c r="M130">
-        <v>13711</v>
+        <v>15362</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -3639,37 +3637,37 @@
         <v>19</v>
       </c>
       <c r="C131">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D131">
-        <v>342</v>
+        <v>173</v>
       </c>
       <c r="E131">
-        <v>-232</v>
+        <v>-245</v>
       </c>
       <c r="F131">
-        <v>110</v>
+        <v>-72</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>2888</v>
+        <v>2939</v>
       </c>
       <c r="I131">
-        <v>13460</v>
+        <v>14739</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L131">
-        <v>13460</v>
+        <v>14734</v>
       </c>
       <c r="M131">
-        <v>13460</v>
+        <v>14734</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -3677,37 +3675,37 @@
         <v>20</v>
       </c>
       <c r="C132">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="D132">
-        <v>342</v>
+        <v>172</v>
       </c>
       <c r="E132">
-        <v>-246</v>
+        <v>-245</v>
       </c>
       <c r="F132">
-        <v>96</v>
+        <v>-73</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>2741</v>
+        <v>2935</v>
       </c>
       <c r="I132">
-        <v>13271</v>
+        <v>14856</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="L132">
-        <v>13280</v>
+        <v>14918</v>
       </c>
       <c r="M132">
-        <v>13280</v>
+        <v>14918</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -3715,37 +3713,37 @@
         <v>21</v>
       </c>
       <c r="C133">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D133">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="E133">
-        <v>-318</v>
+        <v>-244</v>
       </c>
       <c r="F133">
-        <v>-8</v>
+        <v>-69</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>2952</v>
+        <v>3013</v>
       </c>
       <c r="I133">
-        <v>13449</v>
+        <v>15028</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L133">
-        <v>13449</v>
+        <v>15081</v>
       </c>
       <c r="M133">
-        <v>13449</v>
+        <v>15081</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -3753,37 +3751,37 @@
         <v>22</v>
       </c>
       <c r="C134">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D134">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="E134">
-        <v>-320</v>
+        <v>-261</v>
       </c>
       <c r="F134">
-        <v>-12</v>
+        <v>-83</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>2747</v>
+        <v>2985</v>
       </c>
       <c r="I134">
-        <v>13685</v>
+        <v>15236</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L134">
-        <v>13695</v>
+        <v>15279</v>
       </c>
       <c r="M134">
-        <v>13695</v>
+        <v>15279</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -3791,37 +3789,37 @@
         <v>23</v>
       </c>
       <c r="C135">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D135">
-        <v>388</v>
+        <v>190</v>
       </c>
       <c r="E135">
-        <v>-322</v>
+        <v>-238</v>
       </c>
       <c r="F135">
+        <v>-48</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>2927</v>
+      </c>
+      <c r="I135">
+        <v>15816</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
         <v>66</v>
       </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>2831</v>
-      </c>
-      <c r="I135">
-        <v>14305</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>15</v>
-      </c>
       <c r="L135">
-        <v>14320</v>
+        <v>15882</v>
       </c>
       <c r="M135">
-        <v>14320</v>
+        <v>15882</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -3829,37 +3827,37 @@
         <v>24</v>
       </c>
       <c r="C136">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D136">
-        <v>390</v>
+        <v>182</v>
       </c>
       <c r="E136">
-        <v>-323</v>
+        <v>-252</v>
       </c>
       <c r="F136">
-        <v>67</v>
+        <v>-70</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>2899</v>
+        <v>2969</v>
       </c>
       <c r="I136">
-        <v>14335</v>
+        <v>16262</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>5</v>
+        <v>-23</v>
       </c>
       <c r="L136">
-        <v>14340</v>
+        <v>16239</v>
       </c>
       <c r="M136">
-        <v>14340</v>
+        <v>16239</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -3867,7 +3865,7 @@
         <v>118</v>
       </c>
       <c r="C138">
-        <v>14829</v>
+        <v>16717</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -3875,7 +3873,7 @@
         <v>119</v>
       </c>
       <c r="C139">
-        <v>12763</v>
+        <v>13918</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -3891,10 +3889,10 @@
         <v>122</v>
       </c>
       <c r="C142">
-        <v>4158.3999999999996</v>
+        <v>5850</v>
       </c>
       <c r="D142">
-        <v>3682.8</v>
+        <v>4656.7</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -3902,10 +3900,10 @@
         <v>123</v>
       </c>
       <c r="C143">
-        <v>1681.96</v>
+        <v>1132.8</v>
       </c>
       <c r="D143">
-        <v>1403.16</v>
+        <v>989.6</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -3913,10 +3911,10 @@
         <v>124</v>
       </c>
       <c r="C144">
-        <v>161.44999999999999</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="D144">
-        <v>84.06</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3941,16 +3939,16 @@
         <v>128</v>
       </c>
       <c r="C147">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D147">
         <v>4</v>
       </c>
       <c r="E147">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,16 +3956,16 @@
         <v>129</v>
       </c>
       <c r="C148">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E148">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F148">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
